--- a/items/Meeting materials/FunctionList-0910-English.xlsx
+++ b/items/Meeting materials/FunctionList-0910-English.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ANU\S3\COMP6442\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yijing/StudioProjects/ga-23s2/items/Meeting materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0515759C-6812-2141-AF66-6EA036BC1EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="765" windowWidth="29265" windowHeight="18885"/>
+    <workbookView xWindow="980" yWindow="760" windowWidth="29260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Function" sheetId="1" r:id="rId1"/>
     <sheet name="prototype" sheetId="3" r:id="rId2"/>
-    <sheet name="List" sheetId="2" r:id="rId3"/>
+    <sheet name="prototype_V1" sheetId="4" r:id="rId3"/>
+    <sheet name="List" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Function!$A$1:$H$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="98">
   <si>
     <t>No</t>
   </si>
@@ -346,16 +348,19 @@
     <t>Not to be considered for now, or needs to be applied for.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Log in</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -363,20 +368,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -443,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,9 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,9 +495,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -523,7 +522,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,50 +631,6 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>77355</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A821A54D-C2EF-08AF-7374-AB998B002058}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3556000" y="5203152"/>
-          <a:ext cx="2438400" cy="4279900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -699,7 +654,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -743,7 +698,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -752,94 +707,6 @@
         <a:xfrm>
           <a:off x="9763584" y="411098"/>
           <a:ext cx="2425700" cy="4292600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>205549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>113272</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>168917</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3560FF-6155-72BA-D625-CA92C2F15134}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="513873" y="5344277"/>
-          <a:ext cx="2425700" cy="4279900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>205549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>118118</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>181617</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D48EDF2-0060-4B32-88B2-F8B57CEB6C8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6680347" y="5344277"/>
-          <a:ext cx="4229100" cy="4292600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -875,7 +742,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -884,6 +751,539 @@
         <a:xfrm>
           <a:off x="513873" y="10071908"/>
           <a:ext cx="2425700" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>205153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>118118</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>181222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F26A3E7-0966-3C47-A3D6-377AB5B6DA0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3556000" y="10052538"/>
+          <a:ext cx="4182118" cy="4284299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>202223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E72357-0B17-BA7F-8853-9E6F68093B3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3556000" y="5334000"/>
+          <a:ext cx="3238500" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>202223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A324557-29CB-7018-0F72-8283DDBB731D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="5334000"/>
+          <a:ext cx="2438400" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>189523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DB7D57-8780-2777-3776-7C75E153BBE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="5334000"/>
+          <a:ext cx="5295900" cy="4292600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90DD71F9-4C1E-6B40-8B50-90D91F688FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="406400"/>
+          <a:ext cx="2489200" cy="4318000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF4D6EC-61A1-DC4F-8F3C-4897EC3ED0A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="403321"/>
+          <a:ext cx="2425700" cy="4360333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>77355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4506DD8-507D-2D4C-AACA-7D0F5CF1ABA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3556000" y="5283200"/>
+          <a:ext cx="2438400" cy="4344555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>100572</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>181617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867D780E-8C1C-304E-A78E-61E12C2747C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3556000" y="406400"/>
+          <a:ext cx="2386572" cy="4245617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>113272</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>181617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05EB2DB0-3683-B844-8DA9-635E744E5A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9652000" y="406400"/>
+          <a:ext cx="2399272" cy="4245617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>205549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>113272</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>168917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EB4FBB-80E9-8E4A-901E-D865AAC48E39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="5285549"/>
+          <a:ext cx="2399272" cy="4230568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>205549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>118118</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>181617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76537A8-1F27-B243-A315-59B1F2555374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="5285549"/>
+          <a:ext cx="4182118" cy="4243268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>113272</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>194318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89337C2B-8EC7-744F-8C19-185672589FD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="9956800"/>
+          <a:ext cx="2399272" cy="4258318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1191,29 +1591,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="2"/>
-    <col min="6" max="6" width="45.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="45.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="50" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="2"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1238,12 +1638,12 @@
       <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="15"/>
+      <c r="K1" s="14"/>
       <c r="L1" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1262,20 +1662,20 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="K2" s="17"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1290,20 +1690,20 @@
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>ROW()-1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1319,15 +1719,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>ROW()-1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1346,15 +1746,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A39" si="0">ROW()-1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1373,7 +1773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1394,15 +1794,15 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1421,15 +1821,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1448,34 +1848,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1496,38 +1896,36 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -1543,7 +1941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1564,15 +1962,15 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1588,7 +1986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1609,15 +2007,15 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1636,15 +2034,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1660,15 +2058,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1687,15 +2085,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1708,15 +2106,15 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1732,15 +2130,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1756,15 +2154,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1780,15 +2178,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1804,15 +2202,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -1825,15 +2223,15 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1849,15 +2247,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1873,15 +2271,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1897,15 +2295,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1921,7 +2319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1942,15 +2340,15 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1966,15 +2364,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1990,15 +2388,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2014,16 +2412,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>87</v>
+      <c r="C34" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>23</v>
@@ -2035,15 +2433,15 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>88</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -2059,15 +2457,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2083,40 +2481,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+    <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="E37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -2133,52 +2531,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+    <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H39"/>
+  <autoFilter ref="A1:H39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>List!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E11 E13:E54</xm:sqref>
+          <xm:sqref>E2:E11 E13:E52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>List!$A$2:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B54</xm:sqref>
+          <xm:sqref>B2:B52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>List!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H54</xm:sqref>
+          <xm:sqref>H2:H52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2187,16 +2585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AL49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -2210,20 +2606,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="N26" t="s">
         <v>7</v>
       </c>
-      <c r="Z26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="AB26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>34</v>
+      </c>
+      <c r="N49" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2234,17 +2633,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874ACBDC-B8E9-A643-B7C8-64F12B41C326}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B2:AL49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB51" sqref="AB51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +2703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2266,7 +2714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2277,7 +2725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2288,42 +2736,42 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
